--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.022321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.022321.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2637,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3207,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4119,12 +4119,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4157,12 +4157,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4465,12 +4465,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4883,12 +4883,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5343,12 +5343,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5875,12 +5875,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6141,12 +6141,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6293,12 +6293,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7551,12 +7551,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7627,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8235,12 +8235,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8425,12 +8425,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8805,12 +8805,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9109,12 +9109,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9147,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9379,12 +9379,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9531,12 +9531,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9649,12 +9649,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10413,12 +10413,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10717,12 +10717,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11021,12 +11021,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12693,12 +12693,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12807,12 +12807,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13073,12 +13073,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13111,12 +13111,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13793,12 +13793,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14059,12 +14059,12 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14287,12 +14287,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
